--- a/output/env.xlsx
+++ b/output/env.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52934CF-5E73-47BF-8763-D13A3E9AFF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81055AF-22D2-4323-AA5F-9EE4DD72F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38775" yWindow="1515" windowWidth="15240" windowHeight="12345" xr2:uid="{A860052D-382E-0A49-9AAC-AAC8AD804AB1}"/>
+    <workbookView xWindow="-24150" yWindow="1305" windowWidth="22200" windowHeight="12975" xr2:uid="{A860052D-382E-0A49-9AAC-AAC8AD804AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,11 @@
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
   </si>
   <si>
-    <t>d:\work\Piau-Im\docs</t>
+    <t>文章標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文章標題</t>
+    <t>d:\work\Piau-Im\output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3">
